--- a/PREPARATION/params.xlsx
+++ b/PREPARATION/params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Zr-O3</t>
   </si>
@@ -88,6 +88,69 @@
   </si>
   <si>
     <t>itcFF_Zr</t>
+  </si>
+  <si>
+    <t>O3-Zr-O3</t>
+  </si>
+  <si>
+    <t>O1-Zr-O1</t>
+  </si>
+  <si>
+    <t>O1-Zr-O3</t>
+  </si>
+  <si>
+    <t>Zr-O1-C1</t>
+  </si>
+  <si>
+    <t>O1-C1-O1</t>
+  </si>
+  <si>
+    <t>O1-C1-C2</t>
+  </si>
+  <si>
+    <t>C1-C2-C3</t>
+  </si>
+  <si>
+    <t>C3-C2-C3</t>
+  </si>
+  <si>
+    <t>C2-C3-C3</t>
+  </si>
+  <si>
+    <t>O2-Zr-O2</t>
+  </si>
+  <si>
+    <t>O1-Zr-O2</t>
+  </si>
+  <si>
+    <t>C1-O1-Zr</t>
+  </si>
+  <si>
+    <t>C2-C1-O1</t>
+  </si>
+  <si>
+    <t>C2-C2-H1</t>
+  </si>
+  <si>
+    <t>C1-C2-H1</t>
+  </si>
+  <si>
+    <t>C1-C2-C2</t>
+  </si>
+  <si>
+    <t>74,699/120,419</t>
+  </si>
+  <si>
+    <t>76,243/122,732</t>
+  </si>
+  <si>
+    <t>71,978/141,026</t>
+  </si>
+  <si>
+    <t>100,400/..</t>
+  </si>
+  <si>
+    <t>74,400/…</t>
   </si>
 </sst>
 </file>
@@ -448,7 +511,7 @@
         <v>1.968</v>
       </c>
       <c r="E1">
-        <f>B1*C1</f>
+        <f t="shared" ref="E1:E7" si="0">B1*C1</f>
         <v>743.904</v>
       </c>
     </row>
@@ -463,7 +526,7 @@
         <v>-0.53300000000000003</v>
       </c>
       <c r="E2">
-        <f>B2*C2</f>
+        <f t="shared" si="0"/>
         <v>-511.68</v>
       </c>
     </row>
@@ -478,7 +541,7 @@
         <v>-0.90200000000000002</v>
       </c>
       <c r="E3">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>-454.608</v>
       </c>
     </row>
@@ -493,7 +556,7 @@
         <v>0.63</v>
       </c>
       <c r="E4">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>302.39999999999998</v>
       </c>
     </row>
@@ -508,7 +571,7 @@
         <v>-0.36599999999999999</v>
       </c>
       <c r="E5">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>-175.68</v>
       </c>
     </row>
@@ -523,7 +586,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="E6">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>62.88</v>
       </c>
     </row>
@@ -538,7 +601,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="E7">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>33.012</v>
       </c>
     </row>
@@ -558,7 +621,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,24 +642,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.20979999999999999</v>
+        <v>0.22320000000000001</v>
       </c>
       <c r="C2">
-        <v>2.0633400000000002</v>
+        <v>2.2132999999999998</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>0.10084489224235306</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.22320000000000001</v>
+        <v>0.20979999999999999</v>
       </c>
       <c r="C3">
-        <v>2.2132999999999998</v>
+        <v>2.0633400000000002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">B3/C3</f>
+        <v>0.1016798007114678</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,6 +680,10 @@
       <c r="C4">
         <v>1.2583800000000001</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.10116181121759722</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -620,6 +695,10 @@
       <c r="C5">
         <v>1.49624</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9.9382452013046033E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -631,6 +710,10 @@
       <c r="C6">
         <v>1.3832100000000001</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.10070777394611086</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -642,6 +725,10 @@
       <c r="C7">
         <v>1.3944099999999999</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9.9898881964415071E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -653,6 +740,10 @@
       <c r="C8">
         <v>0.94986999999999999</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.11369976944213418</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -678,16 +769,24 @@
       <c r="C11">
         <v>2.2343299999999999</v>
       </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D17" si="1">B11/C11</f>
+        <v>9.9895718179499007E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.20979999999999999</v>
+        <v>0.22550000000000001</v>
       </c>
       <c r="C12">
         <v>2.2555999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>9.9973399538925353E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,6 +799,10 @@
       <c r="C13">
         <v>1.2774099999999999</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9.9654770199074691E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -711,6 +814,10 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
+      <c r="D14" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -722,27 +829,39 @@
       <c r="C15">
         <v>1.2935300000000001</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>8.3492458620982882E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0.15140000000000001</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="C16">
         <v>1.2693000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>9.9976364925549524E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17">
-        <v>0.13239999999999999</v>
+        <v>0.15229999999999999</v>
       </c>
       <c r="C17">
         <v>1.5236700000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>9.9956027223742666E-2</v>
       </c>
     </row>
   </sheetData>
@@ -752,10 +871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +893,270 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>116.66200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>77.069000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>150.5</v>
+      </c>
+      <c r="C4">
+        <v>140.92500000000001</v>
+      </c>
+      <c r="D4">
+        <f>B4/C4</f>
+        <v>1.067943941813021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="C5">
+        <v>134.096</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="0">B5/C5</f>
+        <v>1.0127073141629879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>125.387</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.99691355563176409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>117.3</v>
+      </c>
+      <c r="C7">
+        <v>117.328</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.9997613527887631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>119.828</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.0014353907267082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>119.79900000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.0016778103323065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>119.84699999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.001276627700318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>100.4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>150.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="C16">
+        <v>130.22</v>
+      </c>
+      <c r="D16">
+        <f>B16/C16</f>
+        <v>1.0428505605897713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>129.852</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D21" si="1">B17/C17</f>
+        <v>0.99343868404029201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>117.3</v>
+      </c>
+      <c r="C18">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
